--- a/SMO/TemplateExcel/DuLieuNganSachPhongBan.xlsx
+++ b/SMO/TemplateExcel/DuLieuNganSachPhongBan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A1768-1BA2-4866-8571-9A79136EF1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35054BE-4B95-4A2E-B761-9C61BBFD7271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phí kinh doanh" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,12 +261,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -754,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E3120B-5679-4A9F-8712-9F7213D06C7E}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,59 +786,59 @@
         <v>16</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -866,19 +867,19 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -898,8 +899,14 @@
       <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
